--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_16_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_16_a.xlsx
@@ -91,7 +91,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_kroos")] …Zzz…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_kroos")] ...Zzz...
 </t>
   </si>
   <si>
